--- a/04. Formula Practice.xlsx
+++ b/04. Formula Practice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intag\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel Practice\Excel-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBFA5BAC-C188-4146-81C4-5C29D7B4ABC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E656A7-0D30-402E-AFD7-565B4AE284A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
@@ -2861,8 +2861,8 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="199" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2931,6 +2931,10 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" t="str">
+        <f>TEXT(H2,"mm/dd/yyyy")</f>
+        <v>11/02/2001</v>
+      </c>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2961,6 +2965,10 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">TEXT(H3,"mm/dd/yyyy")</f>
+        <v>10/03/1999</v>
+      </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2991,6 +2999,10 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>07/04/2000</v>
+      </c>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3021,6 +3033,10 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>01/05/2000</v>
+      </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3051,6 +3067,10 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>05/06/2001</v>
+      </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3081,6 +3101,10 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>12/07/1995</v>
+      </c>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3111,6 +3135,10 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>11/08/2003</v>
+      </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3141,6 +3169,10 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>06/09/2002</v>
+      </c>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3170,6 +3202,10 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>08/10/2003</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -3191,8 +3227,8 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3264,6 +3300,10 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2" t="str">
+        <f>TRIM(C2)</f>
+        <v>Halpert</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -3293,6 +3333,10 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">TRIM(C3)</f>
+        <v>Beasley</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -3322,6 +3366,10 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>Schrute</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -3351,6 +3399,10 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>Martin</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -3380,6 +3432,10 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>Flenderson</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -3409,6 +3465,10 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>Scott</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -3438,6 +3498,10 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>Palmer</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -3467,6 +3531,10 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>Hudson</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -3495,6 +3563,10 @@
       </c>
       <c r="I10" s="1">
         <v>40800</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>Malone</v>
       </c>
     </row>
   </sheetData>
@@ -3509,8 +3581,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="128" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3585,6 +3657,18 @@
       <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="J2" t="str">
+        <f>SUBSTITUTE(I2,"/", "-",1)</f>
+        <v>9-6/2015</v>
+      </c>
+      <c r="K2" t="str">
+        <f>SUBSTITUTE(I2,"/","-",2)</f>
+        <v>9/6-2015</v>
+      </c>
+      <c r="L2" t="str">
+        <f>SUBSTITUTE(I2,"/","-")</f>
+        <v>9-6-2015</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -3614,6 +3698,18 @@
       <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">SUBSTITUTE(I3,"/", "-",1)</f>
+        <v>10-10/2015</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K10" si="1">SUBSTITUTE(I3,"/","-",2)</f>
+        <v>10/10-2015</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L10" si="2">SUBSTITUTE(I3,"/","-")</f>
+        <v>10-10-2015</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -3643,6 +3739,18 @@
       <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>9-8/2017</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>9/8-2017</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
+        <v>9-8-2017</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -3672,6 +3780,18 @@
       <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>12-3/2015</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>12/3-2015</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>12-3-2015</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -3701,6 +3821,18 @@
       <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>8-30/2017</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>8/30-2017</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>8-30-2017</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -3730,6 +3862,18 @@
       <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>9-11/2013</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>9/11-2013</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>9-11-2013</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -3759,6 +3903,18 @@
       <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>9-11/2013</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>9/11-2013</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>9-11-2013</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -3788,6 +3944,18 @@
       <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>4-22/2015</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>4/22-2015</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>4-22-2015</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -3816,6 +3984,18 @@
       </c>
       <c r="I10" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>4-22/2015</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>4/22-2015</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>4-22-2015</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">

--- a/04. Formula Practice.xlsx
+++ b/04. Formula Practice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel Practice\Excel-Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E656A7-0D30-402E-AFD7-565B4AE284A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8E6A22-6DA3-4C98-80AA-D3E591F05F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="10" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -1007,10 +1007,10 @@
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="128" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,10 +1020,12 @@
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="8" max="8" width="14.21875" customWidth="1"/>
     <col min="9" max="9" width="14.77734375" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1055,7 +1057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1083,8 +1085,20 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f>CONCATENATE(B2,C2)</f>
+        <v>JimHalpert</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE(B2," ",C2)</f>
+        <v>Jim Halpert</v>
+      </c>
+      <c r="L2" t="str">
+        <f>CONCATENATE(B2,".",C2,"@gmail.com")</f>
+        <v>Jim.Halpert@gmail.com</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1112,8 +1126,20 @@
       <c r="I3" s="1">
         <v>42287</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J10" si="0">CONCATENATE(B3,C3)</f>
+        <v>PamBeasley</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K10" si="1">CONCATENATE(B3," ",C3)</f>
+        <v>Pam Beasley</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L10" si="2">CONCATENATE(B3,".",C3,"@gmail.com")</f>
+        <v>Pam.Beasley@gmail.com</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1141,8 +1167,20 @@
       <c r="I4" s="1">
         <v>42986</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>DwightSchrute</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>Dwight Schrute</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="2"/>
+        <v>Dwight.Schrute@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1170,8 +1208,20 @@
       <c r="I5" s="1">
         <v>42341</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>AngelaMartin</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>Angela Martin</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="2"/>
+        <v>Angela.Martin@gmail.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1199,8 +1249,20 @@
       <c r="I6" s="1">
         <v>42977</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>TobyFlenderson</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>Toby Flenderson</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v>Toby.Flenderson@gmail.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1228,8 +1290,20 @@
       <c r="I7" s="1">
         <v>41528</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>MichaelScott</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>Michael Scott</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v>Michael.Scott@gmail.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1257,8 +1331,20 @@
       <c r="I8" s="1">
         <v>41551</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>MeredithPalmer</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>Meredith Palmer</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>Meredith.Palmer@gmail.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1286,8 +1372,20 @@
       <c r="I9" s="1">
         <v>42116</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>StanleyHudson</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>Stanley Hudson</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>Stanley.Hudson@gmail.com</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1315,16 +1413,28 @@
       <c r="I10" s="1">
         <v>40800</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>KevinMalone</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>Kevin Malone</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>Kevin.Malone@gmail.com</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H11" t="str">
-        <f t="shared" ref="H11:H12" si="0">CONCATENATE(B11," ",C11)</f>
+        <f t="shared" ref="H11:H12" si="3">CONCATENATE(B11," ",C11)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -1340,8 +1450,8 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="146" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1413,6 +1523,14 @@
       <c r="I2" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="J2">
+        <f>_xlfn.DAYS(I2,H2)</f>
+        <v>5056</v>
+      </c>
+      <c r="K2">
+        <f>NETWORKDAYS(H2,I2)</f>
+        <v>3611</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1442,6 +1560,14 @@
       <c r="I3" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="0">_xlfn.DAYS(I3,H3)</f>
+        <v>5851</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="1">NETWORKDAYS(H3,I3)</f>
+        <v>4180</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -1471,6 +1597,14 @@
       <c r="I4" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>6275</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>4484</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -1500,6 +1634,14 @@
       <c r="I5" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>5811</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>4152</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -1529,6 +1671,14 @@
       <c r="I6" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>5960</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>4258</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -1558,6 +1708,14 @@
       <c r="I7" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>4511</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>3223</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1587,6 +1745,14 @@
       <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3595</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>2568</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1616,6 +1782,14 @@
       <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>4700</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>3358</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1644,6 +1818,14 @@
       </c>
       <c r="I10" s="2" t="s">
         <v>62</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>4273</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>3053</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +3043,7 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="199" workbookViewId="0">
+    <sheetView zoomScale="143" zoomScaleNormal="199" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -4047,8 +4229,8 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="B1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4119,6 +4301,18 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2">
+        <f>SUM(G2:G10)</f>
+        <v>437000</v>
+      </c>
+      <c r="K2">
+        <f>SUMIF(G2:G10,"&gt;50000")</f>
+        <v>128000</v>
+      </c>
+      <c r="L2">
+        <f>SUMIFS(G2:G10,D2:D10,"&lt;=30",E2:E10,"Male")</f>
+        <v>108000</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -4147,6 +4341,10 @@
       </c>
       <c r="I3" s="1">
         <v>42287</v>
+      </c>
+      <c r="K3">
+        <f>SUMIF(E2:E10,"Male",G2:G10)</f>
+        <v>313000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -4364,8 +4562,8 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4440,6 +4638,18 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
+      <c r="J2">
+        <f>COUNT(E2:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(E2:E10,"Male")</f>
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIFS(E2:E10,"Male",D2:D10,"&lt;=30")</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -4468,6 +4678,14 @@
       </c>
       <c r="I3" s="1">
         <v>42287</v>
+      </c>
+      <c r="J3">
+        <f>COUNT(D2:D10)</f>
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(E2:E10,"male")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
